--- a/datamining/final_data/sorted1998_nltk.xlsx
+++ b/datamining/final_data/sorted1998_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ANA2"/>
+  <dimension ref="A1:ALZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,19 +477,19 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>talents</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>education</t>
@@ -507,84 +507,84 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>dr.</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>edition</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>edition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>academic</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>group</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>harry</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>minds</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>harry</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>introductions</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>talented</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>heterogeneous</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>introductions</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>philosophies</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>talented</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>remarkable</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>learners</t>
@@ -602,62 +602,62 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>era</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>postmodern</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>honoring</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>era</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>postmodern</t>
+          <t>handbook</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>handbook</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>factors</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>educating</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>excellence</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>educating</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>factors</t>
-        </is>
-      </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>underachievement</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>model</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>test</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -667,44 +667,44 @@
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>science</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
+          <t>intellectual</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>reconsidered</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>cognition</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>reconsidered</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>intellectual</t>
-        </is>
-      </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>psychometric</t>
@@ -712,117 +712,117 @@
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>open-ended</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>open-ended</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>among</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>early</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>collaboration</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>rated</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>collaboration</t>
+          <t>males</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>males</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
           <t>maker</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>art</t>
-        </is>
-      </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>females</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>rated</t>
+          <t>three</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>student-centered</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>national</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>student-centered</t>
+          <t>dynamic</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>problem-based</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>dynamic</t>
+          <t>times</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
@@ -832,87 +832,87 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>problem-based</t>
+          <t>work</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>school</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>times</t>
+          <t>collaborative</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>models</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>collaborative</t>
+          <t>general</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>family</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>article</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>one</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>responses</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>foundations</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>expression</t>
+          <t>compacting</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
@@ -927,42 +927,42 @@
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>child</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>foundations</t>
+          <t>student</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>childhood</t>
+          <t>products</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>style</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>products</t>
+          <t>assumptions</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>compacting</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
@@ -972,512 +972,512 @@
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>author</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>explored</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>assumptions</t>
+          <t>system</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>acid</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>explored</t>
+          <t>units</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>less</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>spatial</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>spatial</t>
+          <t>use</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>tended</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>effort</t>
+          <t>content</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>acid</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>a.</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>curricula</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>curricula</t>
+          <t>data</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>need</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>tended</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>a.</t>
+          <t>process</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>proposal</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>differentiation</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>differentiation</t>
+          <t>gardner</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>proposal</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>two</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>research</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>position</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>gardner</t>
+          <t>used</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>demonstrated</t>
+          <t>different</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>verbs</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>order</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>mental</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
           <t>views</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>verbs</t>
-        </is>
-      </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>results</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>environmental</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>within</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>preadolescents</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>environmental</t>
+          <t>using</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>contributing</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>contributing</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>based</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>families</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>preadolescents</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>may</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>birth</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>enrichment</t>
+          <t>language</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>female</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
           <t>unit</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
+          <t>arts</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
           <t>integrated</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>arts</t>
-        </is>
-      </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
+          <t>descent</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>curricular</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>experiences</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>preferences</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>rican</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>puerto</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
           <t>british</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>birth</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>provide</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>grammar</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>curricular</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>sovereignty</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>state-funded</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>life</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>puerto</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>influencing</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>mind</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>descent</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>means</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>preferences</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>literature</t>
-        </is>
-      </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>state-funded</t>
-        </is>
-      </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>sovereignty</t>
+          <t>way</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>rican</t>
+          <t>similar</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>states</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>type</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>young</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>reggio</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>similar</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>emilia</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
@@ -1492,582 +1492,582 @@
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>importance</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>districts</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>dimension</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>importance</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>assessing</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>associated</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>competence</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
           <t>deficits</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>reggio</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>assessing</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>head</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>young</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>traditional</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>competence</t>
-        </is>
-      </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>emilia</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>dimension</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>focuses</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
+          <t>extreme</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
           <t>studies</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>extreme</t>
-        </is>
-      </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>districts</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>types</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>ethical</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>focuses</t>
+          <t>humankind</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>appropriate</t>
+          <t>better</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>five</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>meeting</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
           <t>mild</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>gender-related</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>role</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>ethical</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>humankind</t>
+          <t>ratings</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>first-born</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>invites</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>yet</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>insularity</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>fragmentation</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
           <t>dimensions</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>parents</t>
-        </is>
-      </c>
-      <c r="JA1" s="1" t="inlineStr">
-        <is>
-          <t>ratings</t>
-        </is>
-      </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>sciences</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>examination</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>specialized</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>compacted</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>concepts</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>needs</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>discussed</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>barriers</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>examination</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>scenarios</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>similarity</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>fragmentation</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>insularity</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>sciences</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>also</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>purpose</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>invites</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>illustrates</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>specialized</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>compacted</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>first-born</t>
+          <t>association</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>suggesting</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>theorists</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>whose</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>considered</t>
+          <t>university</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>current</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>theorists</t>
+          <t>self</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>illustrates</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>renzulli</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>suggesting</t>
+          <t>conditions</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>professionals</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>relatively</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>view</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>underserved</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>renzulli</t>
+          <t>sustaining</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>relatively</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>professionals</t>
+          <t>often</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>conditions</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>self</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>expand</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>sustaining</t>
+          <t>selective</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>collected</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>underserved</t>
+          <t>differently</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
+          <t>creativity</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>seven</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>standards</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>effect</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>investigated</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>everywhere</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
           <t>male</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
-        <is>
-          <t>urban</t>
-        </is>
-      </c>
-      <c r="KW1" s="1" t="inlineStr">
-        <is>
-          <t>investigated</t>
-        </is>
-      </c>
-      <c r="KX1" s="1" t="inlineStr">
-        <is>
-          <t>creativity</t>
-        </is>
-      </c>
-      <c r="KY1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="KZ1" s="1" t="inlineStr">
-        <is>
-          <t>seven</t>
-        </is>
-      </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>mathematics</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>practical</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="LC1" s="1" t="inlineStr">
-        <is>
-          <t>analysis</t>
-        </is>
-      </c>
-      <c r="LD1" s="1" t="inlineStr">
-        <is>
-          <t>standards</t>
-        </is>
-      </c>
-      <c r="LE1" s="1" t="inlineStr">
-        <is>
-          <t>mathematics</t>
-        </is>
-      </c>
-      <c r="LF1" s="1" t="inlineStr">
-        <is>
-          <t>selective</t>
-        </is>
-      </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>ranging</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>well</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>four</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>ranging</t>
+          <t>human</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>everywhere</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>differently</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>several</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>expand</t>
+          <t>contribution</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
@@ -2077,57 +2077,57 @@
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>according</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>theories</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>selects</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>according</t>
+          <t>subcategories</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>contribution</t>
+          <t>minimum</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>subgroup</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>qualify</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>theories</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
@@ -2137,3502 +2137,3367 @@
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
+          <t>ways</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
           <t>product</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>metric</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>subgroups</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>previous</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>threshold</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>critique</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>implementation</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>investigation</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>designed</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>subdivide</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>funded</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>subgroup</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>metric</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>adoption</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>argues</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>attributed</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>earlier</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>exceptional</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>widespread</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>including</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>homogeneous</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>argues</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>attributed</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>critique</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>earlier</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>exceptional</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>widespread</t>
-        </is>
-      </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>gagne</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>including</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>threshold</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>minimum</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>previous</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>qualify</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>selects</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>subcategories</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>subdivide</t>
-        </is>
-      </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>subgroups</t>
+          <t>working</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>adoption</t>
+          <t>first</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>control</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>actual</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>interviews</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>multidimensional</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>list</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>working</t>
+          <t>columbia</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>tasks</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>multidimensional</t>
+          <t>measure</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>ecological</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>actual</t>
+          <t>except</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>deriving</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
+          <t>specialists</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>upon</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>h.</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>emeritus</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>approaches</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>annual</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>april</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>bibliography</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>chicago</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>party</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>interpersonal</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>incidence</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>school-related</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>jacob</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>added</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>habit</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>taken</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>illinois</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>implications</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>incorporating</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>alliances</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>bridges</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>differentiated</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>entries</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>american</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>educative</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>howard</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>advocate</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>covert</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>across</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>prototypical</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>field-tested</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>schiff</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>nonschool</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>nurture</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>compared</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>stimulating</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>spend</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>shows</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>relevant</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>promise</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>pioneers</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>related</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>nurturing</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>educators</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
           <t>publications</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
-        <is>
-          <t>related</t>
-        </is>
-      </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>jacob</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>ecological</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>bibliography</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>possible</t>
-        </is>
-      </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
-        <is>
-          <t>fit</t>
-        </is>
-      </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>compared</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>incorporating</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>chicago</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>added</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>april</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>annual</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>deriving</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>school-related</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>approaches</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>professor</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>schiff</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>significantly</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>emeritus</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>implications</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>differentiated</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>specialists</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>upon</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>bridges</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>entries</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>attitudes</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>across</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>alliances</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>prototypical</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>columbia</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>where</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>incidence</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>h.</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>taken</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>illinois</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>educators</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>interpersonal</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>party</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>habit</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>advanced</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>except</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>selected</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>advancement</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>believed</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>practitioners</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>another</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>institute</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>groups</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>another</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>selected</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>empirical</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>believed</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>institute</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>practitioners</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>advancement</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>howard</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>impact</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>applications</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>3,532</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>allowed</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>community</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>analytic</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>educative</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>field-tested</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>3,532</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>his</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>concludes</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>construct</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>yielded</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>variety</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>surveys</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>schoolwide</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>reliabilities</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>reis</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>procedures</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>nonschool</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>nurture</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>nurturing</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>pioneers</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>promise</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>relevant</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>shows</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>spend</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>stimulating</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>absence</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>thwarted</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>later</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>interactive</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>observation</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>participant</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>phenomenon</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>possibilities</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>qualitative</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>gather</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>suggestions</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>supplementary</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>techniques</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>northeastern</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>underachieving</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>exploring</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>united</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>explaining</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
         <is>
           <t>included</t>
         </is>
       </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>allowed</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>gifts</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>schoolwide</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>reliabilities</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>reis</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>procedures</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>construct</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>variety</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>advocate</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>concludes</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>surveys</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>covert</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>analytic</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>classic</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>applications</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>yielded</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>explaining</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>emerged</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>contributed</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>turn</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>visions</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>voice</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>responsibilities</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>improvement</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>eight</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>meets</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>making</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>sets</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>focusing</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>ages</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>continued</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>crucial</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>identifying</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>11-plus</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>fewer</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>assistance</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>instruct</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>5,142</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>undergone</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>caretakers</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>caucasian</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>statutory</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>database</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>drawn</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>english-speaking</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>requirements</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>abolishing</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>consists</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>solve</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>certain</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>provides</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>proficiency</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>disabled</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>master</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>perform</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>test-intervene-retest</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>nontraditional</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>dissatisfied</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>mediated</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>perceive</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>multi-site</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>imposing</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>parenting</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
         <is>
           <t>half-century</t>
         </is>
       </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>finally</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>gather</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>explore</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>flexible</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>propitious</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>reporting</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>responsive</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>restrictive</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>skilled</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>socially</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>start/public</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>transition</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
         <is>
           <t>extension</t>
         </is>
       </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>emerged</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>changes</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>attend</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>non-handicapped</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>prolonged</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>highest</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>low-income</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>half</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>leveling</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>former</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>homes</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>incomes</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
         <is>
           <t>last</t>
         </is>
       </c>
-      <c r="SR1" s="1" t="inlineStr">
+      <c r="WS1" s="1" t="inlineStr">
         <is>
           <t>introduction</t>
         </is>
       </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>interactive</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>later</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>crucial</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>eight</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>northeastern</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>observation</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>imposing</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>participant</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>entry</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>focusing</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>continued</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>meets</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>responsibilities</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>turn</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>visions</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>voice</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>contributed</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>11-plus</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>absence</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>abolishing</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>attend</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>changes</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>leveling</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>phenomenon</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>caretakers</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>income</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>caucasian</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>seen</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>restrictive</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>responsive</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>reporting</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>propitious</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>database</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>prolonged</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>practices</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>statutory</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>drawn</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>5,142</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>parenting</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>undergone</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>english-speaking</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>fewer</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>flexible</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>former</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
         <is>
           <t>generated</t>
         </is>
       </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>half</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>non-handicapped</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>multi-site</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>highest</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>low-income</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>incomes</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>socially</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>skilled</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>section</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>techniques</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>supplementary</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>suggestions</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>perceive</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>six</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>ages</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>possibilities</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>thwarted</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>homes</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>underachieving</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>spring</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>united</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>sets</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>start/public</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>subsample</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>transition</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>adhd</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>adhd-like</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>and/or</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>barkley</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
         <is>
           <t>behaviors</t>
         </is>
       </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>perform</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>colangelo</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
         <is>
           <t>1938</t>
         </is>
       </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>adhd-like</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>alternative</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>barkley</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>adhd</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>counteract</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>boundaries</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>benefit</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>behavior</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>bright</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>al.</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>reaction</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>dabrowski</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>represent</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>paradigm</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>piechowski</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>precocity</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>rarely</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>referred</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>reif</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>relates</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>rimm</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>strategies</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>suggested</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>trees</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>unchallenging</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>youngsters</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>century</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>offer</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>hyper-activity</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>emotional</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>excitability</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>fact</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>far</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>forest</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>gordon</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>hyperactivity</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>manifestation</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>hypotheses</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>impulsivity</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>increasing</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>inhibition</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>intelligences</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>budding</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>challenge</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>require</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>lies</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>took</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>marland</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>matching</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>maturity</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>philosopher</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>productively</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>realize</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>society</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>stimulate</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>stretch</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>suggests</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>challenged</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>tannenbaum</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>tomlinson</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>traces</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>william</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>wherein</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>ward</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>inspiration</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>milne</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>conscience</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>gallagher</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>1902</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>conscience</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>contributors</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>inspiration</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>gallagher</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
+      <c r="AAT1" s="1" t="inlineStr">
         <is>
           <t>ethos</t>
         </is>
       </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>et</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>endeavor</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>debated</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>eminent</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
         <is>
           <t>engender</t>
         </is>
       </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>endeavor</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>eminent</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>element</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>debated</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>challenged</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>challenge</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>century</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>budding</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>bright</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>boundaries</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>benefit</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>al.</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>colangelo</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>proficiency</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>counteract</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>relates</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>paradigm</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>piechowski</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>precocity</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>reaction</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>referred</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>reif</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>represent</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>dabrowski</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>rimm</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>see</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>strategies</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>theory</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>trees</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>unchallenging</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>youngsters</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>james</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>offer</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>manifestation</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>diagnostic</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>emotional</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>evidence</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>excitability</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>fact</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>far</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>fiction</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>gordon</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>hyper-activity</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>hyperactivity</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>hypotheses</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>impulsivity</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>increasing</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>inhibition</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>intelligences</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>and/or</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>certain</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>assistance</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>dissatisfied</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>realize</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>require</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>disabled</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>consists</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>society</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>called</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>stimulate</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>took</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>stretch</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>suggests</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>tannenbaum</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>tomlinson</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>traces</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>ward</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>wherein</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>william</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>productively</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>philosopher</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>solve</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>kind</t>
-        </is>
-      </c>
       <c r="AAZ1" s="1" t="inlineStr">
         <is>
-          <t>lies</t>
+          <t>eliminate</t>
         </is>
       </c>
       <c r="ABA1" s="1" t="inlineStr">
         <is>
-          <t>numbers</t>
+          <t>inference</t>
         </is>
       </c>
       <c r="ABB1" s="1" t="inlineStr">
         <is>
-          <t>nontraditional</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="ABC1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>growing</t>
         </is>
       </c>
       <c r="ABD1" s="1" t="inlineStr">
         <is>
-          <t>test-intervene-retest</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="ABE1" s="1" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>activity</t>
         </is>
       </c>
       <c r="ABF1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>eliminating</t>
         </is>
       </c>
       <c r="ABG1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>administered</t>
         </is>
       </c>
       <c r="ABH1" s="1" t="inlineStr">
         <is>
-          <t>marland</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="ABI1" s="1" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>fears</t>
         </is>
       </c>
       <c r="ABJ1" s="1" t="inlineStr">
         <is>
-          <t>mediated</t>
+          <t>guard</t>
         </is>
       </c>
       <c r="ABK1" s="1" t="inlineStr">
         <is>
-          <t>matching</t>
+          <t>e.g</t>
         </is>
       </c>
       <c r="ABL1" s="1" t="inlineStr">
         <is>
-          <t>master</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="ABM1" s="1" t="inlineStr">
         <is>
-          <t>usually</t>
+          <t>iowa</t>
         </is>
       </c>
       <c r="ABN1" s="1" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="ABO1" s="1" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>due</t>
         </is>
       </c>
       <c r="ABP1" s="1" t="inlineStr">
         <is>
-          <t>instruct</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="ABQ1" s="1" t="inlineStr">
         <is>
-          <t>maturity</t>
+          <t>declines</t>
         </is>
       </c>
       <c r="ABR1" s="1" t="inlineStr">
         <is>
-          <t>milne</t>
+          <t>admissions</t>
         </is>
       </c>
       <c r="ABS1" s="1" t="inlineStr">
         <is>
-          <t>improvement</t>
+          <t>love</t>
         </is>
       </c>
       <c r="ABT1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>covariance</t>
         </is>
       </c>
       <c r="ABU1" s="1" t="inlineStr">
         <is>
+          <t>composed</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>metacognitive</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>interrelationships</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>census</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>bureau</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>already</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>ceiling</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>brief</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>mastered</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>pre</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>schwanenflugel</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>suburban</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>alexander</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>worry</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>affective</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>minimize</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>scaling</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>represented</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>recognition</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>prospective</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>analyses</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>sixth</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>out-of-grade-level</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>naive</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>replacing</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>rural</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>depending</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>decide</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>say</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>clustering</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>cited</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>disproportionately</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
           <t>carr</t>
         </is>
       </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>cited</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>clustering</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>affective</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>analyses</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>alexander</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>decide</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>covariate</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>johns</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>memorize</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>application</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>youngest-born</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>recommendations</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>promotes</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>philosophical</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>perspectives</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>panoramic</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>navigation</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>movements</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>explained</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>along</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>breaking</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>studied</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>interpretive</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>clarification</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>interdisciplinary</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>clarify</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>highlighting</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>expansion</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>currently</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>dynamics</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>u.s.</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>strongly</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>neo</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>uncertain</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>three-dimensional</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>hopkins</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>indicator</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>internal-external</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>metacognition</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>locus</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>myers-briggs</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>overrepresented</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>perfectionism</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>perfectionistic</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
         <is>
           <t>suffer</t>
         </is>
       </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>depending</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>e.g</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>growing</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>increased</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>inference</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>interrelationships</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>love</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>memorize</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>metacognition</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>iowa</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>eliminating</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>experimental</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>fears</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>guard</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>naive</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>mastered</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>minimize</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>out-of-grade-level</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>pre</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>prior</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>replacing</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>rural</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>say</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>theoretical</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>sixth</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>suburban</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>they</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>metacognitive</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>indicator</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>internal-external</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>johns</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>locus</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>much</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>myers-briggs</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>neo</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>overrepresented</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>perfectionism</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>perfectionistic</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
+      <c r="AFV1" s="1" t="inlineStr">
         <is>
           <t>rosenberg</t>
         </is>
       </c>
-      <c r="AEG1" s="1" t="inlineStr">
+      <c r="AFW1" s="1" t="inlineStr">
         <is>
           <t>rotter</t>
         </is>
       </c>
-      <c r="AEH1" s="1" t="inlineStr">
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>stronger</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
         <is>
           <t>secondary</t>
         </is>
       </c>
-      <c r="AEI1" s="1" t="inlineStr">
+      <c r="AFZ1" s="1" t="inlineStr">
         <is>
           <t>self-esteem</t>
         </is>
       </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>strongly</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>symptom</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>u.s.</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>youngest-born</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>hopkins</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>due</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>pairs</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>explained</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>prospective</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>recognition</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>represented</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>scaling</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>schwanenflugel</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>understand</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>worry</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>828</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>administered</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>admissions</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>brief</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>bureau</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>census</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>check</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>composed</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>covariance</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>covariate</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>disproportionately</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>eliminate</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>settings</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
+      <c r="AGA1" s="1" t="inlineStr">
         <is>
           <t>soft</t>
         </is>
       </c>
-      <c r="AFR1" s="1" t="inlineStr">
+      <c r="AGB1" s="1" t="inlineStr">
         <is>
           <t>establish</t>
         </is>
       </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>expansion</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>promotes</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>three-dimensional</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>uncertain</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>grounded</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>stronger</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>dynamics</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>highlighting</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>interdisciplinary</t>
-        </is>
-      </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>interpretive</t>
+          <t>specifically</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>movements</t>
+          <t>stresses</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>navigation</t>
+          <t>similarly</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>panoramic</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>clarify</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>clarification</t>
+          <t>assessed</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>basis</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>currently</t>
+          <t>mode</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>recommendations</t>
+          <t>lends</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>declines</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>viewed</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>ceiling</t>
+          <t>icm</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>5,385</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>hour</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>consistently</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>philosophical</t>
+          <t>eighth</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>gains</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>breaking</t>
+          <t>fourth</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
-          <t>complexity</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="AHA1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>federally</t>
         </is>
       </c>
       <c r="AHB1" s="1" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>equally</t>
         </is>
       </c>
       <c r="AHC1" s="1" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>reflected</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>viewed</t>
+          <t>respect</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>replicated</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>stresses</t>
+          <t>especially</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
+          <t>credibility</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>taught</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>widely</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
           <t>align</t>
         </is>
       </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>widely</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>taught</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>terms</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>basis</t>
-        </is>
-      </c>
       <c r="AHM1" s="1" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AHN1" s="1" t="inlineStr">
         <is>
-          <t>gains</t>
+          <t>20-36</t>
         </is>
       </c>
       <c r="AHO1" s="1" t="inlineStr">
         <is>
-          <t>20-36</t>
+          <t>renewed</t>
         </is>
       </c>
       <c r="AHP1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>necessary</t>
         </is>
       </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>mode</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>lends</t>
+          <t>match</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>implemented</t>
+          <t>hundred</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>credibility</t>
+          <t>holds</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>icm</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>facto</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>gaps</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>part</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>equally</t>
+          <t>exist</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>fourth</t>
+          <t>ex</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>federally</t>
+          <t>reexamination</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>entered</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>especially</t>
+          <t>providing</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>eighth</t>
+          <t>enter</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>outcome</t>
+          <t>ensure</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>replicated</t>
+          <t>options</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>similarly</t>
+          <t>partners</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>reflected</t>
+          <t>parties</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>sometimes</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>third-grade</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>5,385</t>
+          <t>supports</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>consistently</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>sources</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>understood</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>twofold</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>holds</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>hundred</t>
+          <t>services</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>gaps</t>
+          <t>engage</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>facto</t>
+          <t>sampled</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>match</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>response</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>necessary</t>
+          <t>respectively</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>options</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>purposefully</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>parties</t>
+          <t>produce</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>partners</t>
+          <t>proposes</t>
         </is>
       </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>produce</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>purposefully</t>
+          <t>eighty-nine</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>observations</t>
         </is>
       </c>
       <c r="AJD1" s="1" t="inlineStr">
         <is>
-          <t>respectively</t>
+          <t>example</t>
         </is>
       </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>examining</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
         <is>
-          <t>ex</t>
+          <t>emphasis</t>
         </is>
       </c>
       <c r="AJG1" s="1" t="inlineStr">
         <is>
-          <t>sampled</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="AJH1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>differentiate</t>
         </is>
       </c>
       <c r="AJI1" s="1" t="inlineStr">
         <is>
-          <t>sometimes</t>
+          <t>differed</t>
         </is>
       </c>
       <c r="AJJ1" s="1" t="inlineStr">
         <is>
-          <t>successful</t>
+          <t>determining</t>
         </is>
       </c>
       <c r="AJK1" s="1" t="inlineStr">
         <is>
-          <t>twofold</t>
+          <t>course</t>
         </is>
       </c>
       <c r="AJL1" s="1" t="inlineStr">
         <is>
-          <t>understood</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AJM1" s="1" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>comprehensive</t>
         </is>
       </c>
       <c r="AJN1" s="1" t="inlineStr">
         <is>
-          <t>engage</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AJO1" s="1" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>capabilities</t>
         </is>
       </c>
       <c r="AJP1" s="1" t="inlineStr">
         <is>
+          <t>allow</t>
+        </is>
+      </c>
+      <c r="AJQ1" s="1" t="inlineStr">
+        <is>
+          <t>advocated</t>
+        </is>
+      </c>
+      <c r="AJR1" s="1" t="inlineStr">
+        <is>
+          <t>activities-which</t>
+        </is>
+      </c>
+      <c r="AJS1" s="1" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AJT1" s="1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AJU1" s="1" t="inlineStr">
+        <is>
+          <t>explores</t>
+        </is>
+      </c>
+      <c r="AJV1" s="1" t="inlineStr">
+        <is>
+          <t>fourth-grade</t>
+        </is>
+      </c>
+      <c r="AJW1" s="1" t="inlineStr">
+        <is>
+          <t>grouped</t>
+        </is>
+      </c>
+      <c r="AJX1" s="1" t="inlineStr">
+        <is>
+          <t>built</t>
+        </is>
+      </c>
+      <c r="AJY1" s="1" t="inlineStr">
+        <is>
+          <t>dialogue</t>
+        </is>
+      </c>
+      <c r="AJZ1" s="1" t="inlineStr">
+        <is>
+          <t>descriptive</t>
+        </is>
+      </c>
+      <c r="AKA1" s="1" t="inlineStr">
+        <is>
           <t>nature</t>
         </is>
       </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>explores</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>fourth-grade</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>grouped</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
+      <c r="AKB1" s="1" t="inlineStr">
+        <is>
+          <t>depends</t>
+        </is>
+      </c>
+      <c r="AKC1" s="1" t="inlineStr">
+        <is>
+          <t>maximizes</t>
+        </is>
+      </c>
+      <c r="AKD1" s="1" t="inlineStr">
+        <is>
+          <t>defined</t>
+        </is>
+      </c>
+      <c r="AKE1" s="1" t="inlineStr">
+        <is>
+          <t>conflicting</t>
+        </is>
+      </c>
+      <c r="AKF1" s="1" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="AKG1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="AKH1" s="1" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="AKI1" s="1" t="inlineStr">
+        <is>
+          <t>administrators</t>
+        </is>
+      </c>
+      <c r="AKJ1" s="1" t="inlineStr">
+        <is>
+          <t>level-serve</t>
+        </is>
+      </c>
+      <c r="AKK1" s="1" t="inlineStr">
+        <is>
+          <t>achieving</t>
+        </is>
+      </c>
+      <c r="AKL1" s="1" t="inlineStr">
+        <is>
+          <t>instruments</t>
+        </is>
+      </c>
+      <c r="AKM1" s="1" t="inlineStr">
+        <is>
+          <t>instructional</t>
+        </is>
+      </c>
+      <c r="AKN1" s="1" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AKO1" s="1" t="inlineStr">
         <is>
           <t>heterogeneously</t>
         </is>
       </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>historical</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>instructional</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>instruments</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>level-serve</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>little</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>maximizes</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>observations</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>enter</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>perspective</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>proposes</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>providing</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>reexamination</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>very</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>third-grade</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>renewed</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>supports</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>styles</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>examining</t>
-        </is>
-      </c>
       <c r="AKP1" s="1" t="inlineStr">
         <is>
-          <t>emphasis</t>
+          <t>necessarily</t>
         </is>
       </c>
       <c r="AKQ1" s="1" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="AKR1" s="1" t="inlineStr">
         <is>
-          <t>differentiate</t>
+          <t>time-limited</t>
         </is>
       </c>
       <c r="AKS1" s="1" t="inlineStr">
         <is>
-          <t>ensure</t>
+          <t>give</t>
         </is>
       </c>
       <c r="AKT1" s="1" t="inlineStr">
         <is>
-          <t>eighty-nine</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="AKU1" s="1" t="inlineStr">
         <is>
-          <t>dialogue</t>
+          <t>explain</t>
         </is>
       </c>
       <c r="AKV1" s="1" t="inlineStr">
         <is>
-          <t>descriptive</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AKW1" s="1" t="inlineStr">
         <is>
-          <t>depends</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="AKX1" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>disadvantage</t>
         </is>
       </c>
       <c r="AKY1" s="1" t="inlineStr">
         <is>
-          <t>defined</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="AKZ1" s="1" t="inlineStr">
         <is>
-          <t>activities-which</t>
+          <t>detrimental</t>
         </is>
       </c>
       <c r="ALA1" s="1" t="inlineStr">
         <is>
-          <t>advocated</t>
+          <t>correlated</t>
         </is>
       </c>
       <c r="ALB1" s="1" t="inlineStr">
         <is>
-          <t>conflicting</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="ALC1" s="1" t="inlineStr">
         <is>
-          <t>allow</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="ALD1" s="1" t="inlineStr">
         <is>
-          <t>built</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="ALE1" s="1" t="inlineStr">
         <is>
-          <t>capabilities</t>
+          <t>asked</t>
         </is>
       </c>
       <c r="ALF1" s="1" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>appeared</t>
         </is>
       </c>
       <c r="ALG1" s="1" t="inlineStr">
         <is>
-          <t>administrators</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="ALH1" s="1" t="inlineStr">
         <is>
-          <t>achieving</t>
+          <t>hypothesis</t>
         </is>
       </c>
       <c r="ALI1" s="1" t="inlineStr">
         <is>
-          <t>comprehensive</t>
+          <t>items</t>
         </is>
       </c>
       <c r="ALJ1" s="1" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>like</t>
         </is>
       </c>
       <c r="ALK1" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>score</t>
         </is>
       </c>
       <c r="ALL1" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>tendency</t>
         </is>
       </c>
       <c r="ALM1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>subtests</t>
         </is>
       </c>
       <c r="ALN1" s="1" t="inlineStr">
         <is>
-          <t>determining</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="ALO1" s="1" t="inlineStr">
         <is>
-          <t>differed</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="ALP1" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>slowly</t>
         </is>
       </c>
       <c r="ALQ1" s="1" t="inlineStr">
         <is>
+          <t>seems</t>
+        </is>
+      </c>
+      <c r="ALR1" s="1" t="inlineStr">
+        <is>
+          <t>quickly</t>
+        </is>
+      </c>
+      <c r="ALS1" s="1" t="inlineStr">
+        <is>
+          <t>measures</t>
+        </is>
+      </c>
+      <c r="ALT1" s="1" t="inlineStr">
+        <is>
+          <t>processing</t>
+        </is>
+      </c>
+      <c r="ALU1" s="1" t="inlineStr">
+        <is>
+          <t>positively</t>
+        </is>
+      </c>
+      <c r="ALV1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="ALW1" s="1" t="inlineStr">
+        <is>
+          <t>overestimate</t>
+        </is>
+      </c>
+      <c r="ALX1" s="1" t="inlineStr">
+        <is>
+          <t>neither</t>
+        </is>
+      </c>
+      <c r="ALY1" s="1" t="inlineStr">
+        <is>
+          <t>modestly</t>
+        </is>
+      </c>
+      <c r="ALZ1" s="1" t="inlineStr">
+        <is>
           <t>ascribed</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>visual</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>hypothesis</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>give</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>fairly</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>appeared</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>explain</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantage</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>detrimental</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>correlated</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>computer</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>characteristic</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="AMH1" s="1" t="inlineStr">
-        <is>
-          <t>asked</t>
-        </is>
-      </c>
-      <c r="AMI1" s="1" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="AMJ1" s="1" t="inlineStr">
-        <is>
-          <t>measures</t>
-        </is>
-      </c>
-      <c r="AMK1" s="1" t="inlineStr">
-        <is>
-          <t>modestly</t>
-        </is>
-      </c>
-      <c r="AML1" s="1" t="inlineStr">
-        <is>
-          <t>seems</t>
-        </is>
-      </c>
-      <c r="AMM1" s="1" t="inlineStr">
-        <is>
-          <t>time-limited</t>
-        </is>
-      </c>
-      <c r="AMN1" s="1" t="inlineStr">
-        <is>
-          <t>tendency</t>
-        </is>
-      </c>
-      <c r="AMO1" s="1" t="inlineStr">
-        <is>
-          <t>subtests</t>
-        </is>
-      </c>
-      <c r="AMP1" s="1" t="inlineStr">
-        <is>
-          <t>substantial</t>
-        </is>
-      </c>
-      <c r="AMQ1" s="1" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="AMR1" s="1" t="inlineStr">
-        <is>
-          <t>slowly</t>
-        </is>
-      </c>
-      <c r="AMS1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="AMT1" s="1" t="inlineStr">
-        <is>
-          <t>necessarily</t>
-        </is>
-      </c>
-      <c r="AMU1" s="1" t="inlineStr">
-        <is>
-          <t>quickly</t>
-        </is>
-      </c>
-      <c r="AMV1" s="1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="AMW1" s="1" t="inlineStr">
-        <is>
-          <t>positively</t>
-        </is>
-      </c>
-      <c r="AMX1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="AMY1" s="1" t="inlineStr">
-        <is>
-          <t>overestimate</t>
-        </is>
-      </c>
-      <c r="AMZ1" s="1" t="inlineStr">
-        <is>
-          <t>neither</t>
-        </is>
-      </c>
-      <c r="ANA1" s="1" t="inlineStr">
-        <is>
-          <t>items</t>
         </is>
       </c>
     </row>
@@ -5650,28 +5515,28 @@
         <v>1.99</v>
       </c>
       <c r="E2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
         <v>1.26</v>
       </c>
       <c r="H2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.07</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.02</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -5683,34 +5548,34 @@
         <v>0.98</v>
       </c>
       <c r="P2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.9199999999999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.8999999999999999</v>
       </c>
       <c r="R2" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="T2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.78</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>0.76</v>
       </c>
-      <c r="X2" t="n">
-        <v>0.75</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" t="n">
         <v>0.71</v>
@@ -5719,10 +5584,10 @@
         <v>0.71</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="AD2" t="n">
         <v>0.67</v>
@@ -5737,7 +5602,7 @@
         <v>0.66</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="AI2" t="n">
         <v>0.63</v>
@@ -5749,31 +5614,31 @@
         <v>0.63</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AM2" t="n">
         <v>0.6</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.59</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>0.59</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.5800000000000001</v>
       </c>
       <c r="AR2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS2" t="n">
         <v>0.5700000000000001</v>
       </c>
-      <c r="AS2" t="n">
-        <v>0.57</v>
-      </c>
       <c r="AT2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AU2" t="n">
         <v>0.55</v>
@@ -5791,7 +5656,7 @@
         <v>0.53</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="BA2" t="n">
         <v>0.52</v>
@@ -5809,22 +5674,22 @@
         <v>0.51</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="BL2" t="n">
         <v>0.47</v>
@@ -5833,7 +5698,7 @@
         <v>0.47</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BO2" t="n">
         <v>0.46</v>
@@ -5842,31 +5707,31 @@
         <v>0.46</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.45</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.45</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BZ2" t="n">
         <v>0.42</v>
@@ -5881,13 +5746,13 @@
         <v>0.41</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="CG2" t="n">
         <v>0.4</v>
@@ -5902,25 +5767,25 @@
         <v>0.39</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CR2" t="n">
         <v>0.36</v>
@@ -5935,28 +5800,28 @@
         <v>0.36</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CY2" t="n">
         <v>0.35</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="DD2" t="n">
         <v>0.34</v>
@@ -5968,55 +5833,55 @@
         <v>0.34</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DT2" t="n">
         <v>0.31</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DX2" t="n">
         <v>0.3</v>
@@ -6031,10 +5896,10 @@
         <v>0.3</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="ED2" t="n">
         <v>0.29</v>
@@ -6049,13 +5914,13 @@
         <v>0.29</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EK2" t="n">
         <v>0.28</v>
@@ -6067,19 +5932,19 @@
         <v>0.28</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="ES2" t="n">
         <v>0.27</v>
@@ -6100,28 +5965,28 @@
         <v>0.27</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FG2" t="n">
         <v>0.25</v>
@@ -6133,16 +5998,16 @@
         <v>0.25</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FN2" t="n">
         <v>0.24</v>
@@ -6241,22 +6106,22 @@
         <v>0.23</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GZ2" t="n">
         <v>0.22</v>
@@ -6310,19 +6175,19 @@
         <v>0.21</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HV2" t="n">
         <v>0.2</v>
@@ -6352,7 +6217,7 @@
         <v>0.2</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IF2" t="n">
         <v>0.19</v>
@@ -6385,31 +6250,31 @@
         <v>0.19</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IY2" t="n">
         <v>0.18</v>
@@ -6472,31 +6337,31 @@
         <v>0.18</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KB2" t="n">
         <v>0.17</v>
@@ -6529,31 +6394,31 @@
         <v>0.17</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KU2" t="n">
         <v>0.16</v>
@@ -6595,31 +6460,31 @@
         <v>0.16</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LQ2" t="n">
         <v>0.15</v>
@@ -6739,28 +6604,28 @@
         <v>0.15</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NL2" t="n">
         <v>0.14</v>
@@ -6769,31 +6634,31 @@
         <v>0.14</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NW2" t="n">
         <v>0.13</v>
@@ -6958,37 +6823,37 @@
         <v>0.13</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QC2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QJ2" t="n">
         <v>0.12</v>
@@ -7144,31 +7009,31 @@
         <v>0.12</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="SR2" t="n">
         <v>0.11</v>
@@ -7468,31 +7333,31 @@
         <v>0.11</v>
       </c>
       <c r="WM2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WN2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WO2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WP2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WQ2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WR2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WS2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WT2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WU2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WV2" t="n">
         <v>0.1</v>
@@ -7819,67 +7684,67 @@
         <v>0.1</v>
       </c>
       <c r="AAZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="ABU2" t="n">
         <v>0.09</v>
@@ -8218,79 +8083,79 @@
         <v>0.09</v>
       </c>
       <c r="AGC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AGZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHB2" t="n">
         <v>0.08</v>
@@ -8332,82 +8197,82 @@
         <v>0.08</v>
       </c>
       <c r="AHO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHR2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHS2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AII2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIO2" t="n">
         <v>0.07000000000000001</v>
@@ -8569,85 +8434,85 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AKP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AKZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALQ2" t="n">
         <v>0.06</v>
@@ -8677,87 +8542,6 @@
         <v>0.06</v>
       </c>
       <c r="ALZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AML2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANA2" t="n">
         <v>0.06</v>
       </c>
     </row>
